--- a/dataset/Matching_Results_Comparison/阈值设置40%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置40%.xlsx
@@ -486,11 +486,7 @@
           <t>['门（急）诊诊断疾病编码', '门（急）诊诊断名称', '其他诊断疾病编码']</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>13.7696</v>
       </c>
@@ -508,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -516,7 +512,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.6981865284974094</v>
+        <v>0.7163212435233161</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +592,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +636,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +680,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +724,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +760,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -4958,7 +4954,11 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>其他诊断</t>
+        </is>
+      </c>
       <c r="D140" t="n">
         <v>7.9895</v>
       </c>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -11966,7 +11966,11 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>麻醉方式</t>
+        </is>
+      </c>
       <c r="D367" t="n">
         <v>7.7203</v>
       </c>
@@ -11984,7 +11988,7 @@
         </is>
       </c>
       <c r="H367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -14724,7 +14728,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -14744,7 +14748,7 @@
         </is>
       </c>
       <c r="H456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -16212,7 +16216,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -16232,7 +16236,7 @@
         </is>
       </c>
       <c r="H504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -16584,7 +16588,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -16604,7 +16608,7 @@
         </is>
       </c>
       <c r="H516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -16956,7 +16960,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -16976,7 +16980,7 @@
         </is>
       </c>
       <c r="H528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -20148,7 +20152,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>调用失败</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D631" t="n">
@@ -20168,7 +20172,7 @@
         </is>
       </c>
       <c r="H631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -20304,7 +20308,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -20324,7 +20328,7 @@
         </is>
       </c>
       <c r="H636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -21048,7 +21052,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -21068,7 +21072,7 @@
         </is>
       </c>
       <c r="H660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -21600,7 +21604,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -21620,7 +21624,7 @@
         </is>
       </c>
       <c r="H678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -21636,7 +21640,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -21656,7 +21660,7 @@
         </is>
       </c>
       <c r="H679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -22164,7 +22168,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>手术及操作</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D696" t="n">
@@ -22184,7 +22188,7 @@
         </is>
       </c>
       <c r="H696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -22344,7 +22348,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -22364,7 +22368,7 @@
         </is>
       </c>
       <c r="H702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -23116,7 +23120,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>其他诊断</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -23136,7 +23140,7 @@
         </is>
       </c>
       <c r="H729" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -24370,7 +24374,11 @@
           <t>['15.中草药费', '14.中成药费', '11.康复费']</t>
         </is>
       </c>
-      <c r="C764" t="inlineStr"/>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>15.中草药费</t>
+        </is>
+      </c>
       <c r="D764" t="n">
         <v>8.799899999999999</v>
       </c>
@@ -24388,7 +24396,7 @@
         </is>
       </c>
       <c r="H764" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -24512,7 +24520,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>19.凝血因子类制品费</t>
         </is>
       </c>
       <c r="D768" t="n">
@@ -24532,7 +24540,7 @@
         </is>
       </c>
       <c r="H768" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -24548,7 +24556,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>20.细胞因子类制品费</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -24568,7 +24576,7 @@
         </is>
       </c>
       <c r="H769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
